--- a/docs/17. 테스트 케이스 QA.xlsx
+++ b/docs/17. 테스트 케이스 QA.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="482">
   <si>
     <t>요구사항 ID</t>
   </si>
@@ -1239,7 +1239,7 @@
     <t>TC-032</t>
   </si>
   <si>
-    <t>심플 포멀룩</t>
+    <t>심플 포멀룩 제품 추천해줘.</t>
   </si>
   <si>
     <t>TC-031 &gt; TC-032</t>
@@ -1251,7 +1251,8 @@
     <t>죄송합니다. 문제가 생긴거 같네요.</t>
   </si>
   <si>
-    <t>결과 출력되나 제품을 제시하는 것이 아닌, 룩을 추천해줌</t>
+    <t>- 결과 출력되나 제품을 제시하는 것이 아닌, 룩을 추천해줌
+- Intent Routing 구현에 따른 특징으로, 정상으로 간주</t>
   </si>
   <si>
     <t>TC-033</t>
@@ -1281,6 +1282,9 @@
     <t>상의/하의 중 하나만 일치(매칭X), 남성 착샷 포함</t>
   </si>
   <si>
+    <t>- 프롬프트 재조정으로, 제품 합성 확인</t>
+  </si>
+  <si>
     <t>3회 시도 후 이미지 생성 성공, 의상이 조금 다름</t>
   </si>
   <si>
@@ -1299,6 +1303,11 @@
     <t>해당 제품의 브랜드, 제품명, 가격, 소재 등 제품 정보 + 친환경 정보</t>
   </si>
   <si>
+    <t>- 최초 스타일 메시지 기준 첫번째 스타일로 인식
+- 동일 제품이 아닌, 해당 스타일 관련 제품 추천
+- 해당 제품 클릭 시 상세 페이지에서 제품 정보 확인 가능</t>
+  </si>
+  <si>
     <t>첫번째 상의 정보 로 프롬프팅시 추천된 첫 번째 상의를 제시</t>
   </si>
   <si>
@@ -1317,7 +1326,8 @@
     <t>이 티셔츠는 재활용 폴리에스터와 유기농 면이 섞인 친환경 소재로 제작되어 환경 부담을 줄이고 지속 가능성을 높입니다. 일반 폴리에스터는 석유 기반이지만 재활용 소재는 폐기물 감축과 자원 절약에 기여하여 환경 보호에 도움을 줍니다.</t>
   </si>
   <si>
-    <t>제품 추천으로 연계(예: 이 소재로 된 제품을 더 보여드릴까요?)</t>
+    <t>- 제품 추천으로 연계(예: 이 소재로 된 제품을 더 보여드릴까요?)
+- 제품의 소재에 대한 내용으로 잘 나오지만, 할루시네이션으로 보임.</t>
   </si>
   <si>
     <t>TC-037</t>
@@ -1995,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="177">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2453,9 +2463,6 @@
     </xf>
     <xf borderId="32" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2596,7 +2603,7 @@
     <xdr:ext cx="314325" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="이미지"/>
+        <xdr:cNvPr id="0" name="image7.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2624,7 +2631,7 @@
     <xdr:ext cx="314325" cy="266700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="이미지"/>
+        <xdr:cNvPr id="0" name="image19.png" title="이미지"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2652,7 +2659,7 @@
     <xdr:ext cx="104775" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png"/>
+        <xdr:cNvPr id="0" name="image10.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2680,7 +2687,7 @@
     <xdr:ext cx="95250" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="0" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2708,7 +2715,7 @@
     <xdr:ext cx="104775" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="0" name="image15.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2736,7 +2743,7 @@
     <xdr:ext cx="95250" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png"/>
+        <xdr:cNvPr id="0" name="image12.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2764,7 +2771,7 @@
     <xdr:ext cx="247650" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2792,7 +2799,7 @@
     <xdr:ext cx="209550" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image22.png"/>
+        <xdr:cNvPr id="0" name="image21.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2820,7 +2827,7 @@
     <xdr:ext cx="228600" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png"/>
+        <xdr:cNvPr id="0" name="image16.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2848,7 +2855,7 @@
     <xdr:ext cx="276225" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png"/>
+        <xdr:cNvPr id="0" name="image20.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2876,7 +2883,7 @@
     <xdr:ext cx="266700" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png"/>
+        <xdr:cNvPr id="0" name="image18.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2904,7 +2911,7 @@
     <xdr:ext cx="142875" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png"/>
+        <xdr:cNvPr id="0" name="image8.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2932,7 +2939,7 @@
     <xdr:ext cx="257175" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="0" name="image9.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2960,7 +2967,7 @@
     <xdr:ext cx="228600" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2988,7 +2995,7 @@
     <xdr:ext cx="219075" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png"/>
+        <xdr:cNvPr id="0" name="image6.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3016,7 +3023,7 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image18.png"/>
+        <xdr:cNvPr id="0" name="image14.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3044,7 +3051,7 @@
     <xdr:ext cx="228600" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png"/>
+        <xdr:cNvPr id="0" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3072,7 +3079,7 @@
     <xdr:ext cx="104775" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image21.png"/>
+        <xdr:cNvPr id="0" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3100,7 +3107,7 @@
     <xdr:ext cx="152400" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image19.png"/>
+        <xdr:cNvPr id="0" name="image26.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3128,7 +3135,7 @@
     <xdr:ext cx="190500" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image28.png"/>
+        <xdr:cNvPr id="0" name="image24.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3156,7 +3163,7 @@
     <xdr:ext cx="152400" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image29.png"/>
+        <xdr:cNvPr id="0" name="image25.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3184,7 +3191,7 @@
     <xdr:ext cx="142875" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image25.png"/>
+        <xdr:cNvPr id="0" name="image27.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3212,7 +3219,7 @@
     <xdr:ext cx="152400" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image27.png"/>
+        <xdr:cNvPr id="0" name="image28.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3240,7 +3247,7 @@
     <xdr:ext cx="209550" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image24.png"/>
+        <xdr:cNvPr id="0" name="image29.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3268,7 +3275,7 @@
     <xdr:ext cx="152400" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image17.png"/>
+        <xdr:cNvPr id="0" name="image13.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3296,7 +3303,7 @@
     <xdr:ext cx="161925" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png"/>
+        <xdr:cNvPr id="0" name="image11.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3324,7 +3331,7 @@
     <xdr:ext cx="133350" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image20.png"/>
+        <xdr:cNvPr id="0" name="image22.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3352,7 +3359,7 @@
     <xdr:ext cx="161925" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image23.png"/>
+        <xdr:cNvPr id="0" name="image17.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3408,7 +3415,7 @@
     <xdr:ext cx="171450" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image26.png"/>
+        <xdr:cNvPr id="0" name="image30.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3436,7 +3443,7 @@
     <xdr:ext cx="314325" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image30.png"/>
+        <xdr:cNvPr id="0" name="image23.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -7101,7 +7108,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="148" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L5" s="150" t="s">
         <v>297</v>
@@ -7141,7 +7148,7 @@
         <v>319</v>
       </c>
       <c r="K6" s="142" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L6" s="144" t="s">
         <v>297</v>
@@ -7213,7 +7220,7 @@
         <v>330</v>
       </c>
       <c r="K8" s="142" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L8" s="144" t="s">
         <v>297</v>
@@ -7608,7 +7615,9 @@
       <c r="J20" s="143" t="s">
         <v>382</v>
       </c>
-      <c r="K20" s="158"/>
+      <c r="K20" s="142" t="s">
+        <v>14</v>
+      </c>
       <c r="L20" s="144" t="s">
         <v>297</v>
       </c>
@@ -7643,12 +7652,12 @@
         <v>330</v>
       </c>
       <c r="K21" s="148" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L21" s="150" t="s">
         <v>297</v>
       </c>
-      <c r="N21" s="159" t="s">
+      <c r="N21" s="158" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7687,7 +7696,7 @@
       <c r="M22" s="154" t="s">
         <v>395</v>
       </c>
-      <c r="N22" s="160"/>
+      <c r="N22" s="159"/>
     </row>
     <row r="23">
       <c r="A23" s="147" t="s">
@@ -7719,7 +7728,7 @@
         <v>401</v>
       </c>
       <c r="K23" s="148" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L23" s="150" t="s">
         <v>297</v>
@@ -7785,34 +7794,37 @@
       <c r="I25" s="148" t="s">
         <v>83</v>
       </c>
+      <c r="J25" s="149" t="s">
+        <v>411</v>
+      </c>
       <c r="K25" s="148" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L25" s="150" t="s">
         <v>297</v>
       </c>
       <c r="M25" s="156" t="s">
-        <v>411</v>
-      </c>
-      <c r="N25" s="159" t="s">
         <v>412</v>
+      </c>
+      <c r="N25" s="158" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B26" s="142" t="s">
         <v>299</v>
       </c>
       <c r="C26" s="143" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D26" s="143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E26" s="143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F26" s="143" t="s">
         <v>405</v>
@@ -7824,35 +7836,38 @@
       <c r="I26" s="142" t="s">
         <v>83</v>
       </c>
+      <c r="J26" s="143" t="s">
+        <v>418</v>
+      </c>
       <c r="K26" s="142" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L26" s="144" t="s">
         <v>297</v>
       </c>
       <c r="M26" s="143" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N26" s="146"/>
     </row>
     <row r="27">
       <c r="A27" s="147" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B27" s="148" t="s">
         <v>299</v>
       </c>
       <c r="C27" s="149" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D27" s="149" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E27" s="149" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F27" s="149" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G27" s="149"/>
       <c r="H27" s="148" t="s">
@@ -7862,7 +7877,7 @@
         <v>83</v>
       </c>
       <c r="J27" s="149" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K27" s="148" t="s">
         <v>36</v>
@@ -7875,19 +7890,19 @@
     </row>
     <row r="28">
       <c r="A28" s="141" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B28" s="142" t="s">
         <v>292</v>
       </c>
       <c r="C28" s="143" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E28" s="143" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F28" s="143" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G28" s="143"/>
       <c r="H28" s="142" t="s">
@@ -7897,7 +7912,7 @@
         <v>83</v>
       </c>
       <c r="J28" s="143" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K28" s="142" t="s">
         <v>14</v>
@@ -7910,22 +7925,22 @@
     </row>
     <row r="29">
       <c r="A29" s="147" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B29" s="148" t="s">
         <v>292</v>
       </c>
       <c r="C29" s="149" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D29" s="149" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E29" s="149" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F29" s="149" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G29" s="149"/>
       <c r="H29" s="148" t="s">
@@ -7945,22 +7960,22 @@
     </row>
     <row r="30">
       <c r="A30" s="141" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B30" s="142" t="s">
         <v>292</v>
       </c>
       <c r="C30" s="143" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D30" s="143" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E30" s="143" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F30" s="143" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G30" s="143"/>
       <c r="H30" s="142" t="s">
@@ -7976,25 +7991,25 @@
         <v>297</v>
       </c>
       <c r="M30" s="154" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N30" s="146"/>
     </row>
     <row r="31">
       <c r="A31" s="147" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B31" s="148" t="s">
         <v>341</v>
       </c>
       <c r="C31" s="149" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E31" s="149" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F31" s="149" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G31" s="149"/>
       <c r="H31" s="148" t="s">
@@ -8014,19 +8029,19 @@
     </row>
     <row r="32">
       <c r="A32" s="141" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B32" s="142" t="s">
         <v>299</v>
       </c>
       <c r="C32" s="143" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D32" s="143" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E32" s="143" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F32" s="143" t="s">
         <v>405</v>
@@ -8049,13 +8064,13 @@
     </row>
     <row r="33">
       <c r="A33" s="147" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B33" s="148" t="s">
         <v>304</v>
       </c>
       <c r="C33" s="149" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E33" s="149" t="s">
         <v>405</v>
@@ -8071,47 +8086,47 @@
         <v>83</v>
       </c>
       <c r="K33" s="148" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L33" s="150" t="s">
         <v>297</v>
       </c>
       <c r="M33" s="156" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="N33" s="152"/>
     </row>
     <row r="34">
-      <c r="A34" s="161" t="s">
-        <v>450</v>
-      </c>
-      <c r="B34" s="162" t="s">
+      <c r="A34" s="160" t="s">
+        <v>452</v>
+      </c>
+      <c r="B34" s="161" t="s">
         <v>332</v>
       </c>
-      <c r="C34" s="163" t="s">
-        <v>451</v>
-      </c>
-      <c r="E34" s="163" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="163" t="s">
+      <c r="C34" s="162" t="s">
         <v>453</v>
       </c>
-      <c r="G34" s="163"/>
-      <c r="H34" s="162" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="162" t="s">
+      <c r="E34" s="162" t="s">
+        <v>454</v>
+      </c>
+      <c r="F34" s="162" t="s">
+        <v>455</v>
+      </c>
+      <c r="G34" s="162"/>
+      <c r="H34" s="161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="162" t="s">
+      <c r="K34" s="161" t="s">
         <v>14</v>
       </c>
       <c r="L34" s="144" t="s">
         <v>297</v>
       </c>
-      <c r="M34" s="164"/>
-      <c r="N34" s="165"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="164"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -8158,35 +8173,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="136" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B1" s="137" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C1" s="137" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D1" s="137" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E1" s="137" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F1" s="137" t="s">
-        <v>459</v>
-      </c>
-      <c r="G1" s="166" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="G1" s="165" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="167"/>
-      <c r="B2" s="168" t="str">
+      <c r="A2" s="166"/>
+      <c r="B2" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('기능테스트'!C:C, '기능테스트'!F:F=""Fail"")
 "),"#REF!")</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="168" t="str">
+      <c r="C2" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('기능테스트'!G:G, '기능테스트'!F:F=""Fail"")
 "),"#REF!")</f>
         <v>#REF!</v>
@@ -8196,21 +8211,21 @@
       <c r="F2" s="142"/>
     </row>
     <row r="3">
-      <c r="A3" s="169" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="170" t="str">
+      <c r="A3" s="168" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('기능테스트'!C:C, '기능테스트'!F:F=""Fail"")
 "),"FNC-SIGNUP-040")</f>
         <v>FNC-SIGNUP-040</v>
       </c>
-      <c r="C3" s="170" t="str">
+      <c r="C3" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER('기능테스트'!G:G, '기능테스트'!F:F=""Fail"")
 "),"송지훈")</f>
         <v>송지훈</v>
       </c>
       <c r="D3" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E3" s="148" t="s">
         <v>20</v>
@@ -8220,19 +8235,19 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="167" t="s">
-        <v>463</v>
-      </c>
-      <c r="B4" s="168" t="str">
+      <c r="A4" s="166" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SIGNUP-050")</f>
         <v>FNC-SIGNUP-050</v>
       </c>
-      <c r="C4" s="171" t="str">
+      <c r="C4" s="170" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"송지훈")</f>
         <v>송지훈</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E4" s="142" t="s">
         <v>20</v>
@@ -8242,19 +8257,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="169" t="s">
-        <v>464</v>
-      </c>
-      <c r="B5" s="170" t="str">
+      <c r="A5" s="168" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SURVEY-010")</f>
         <v>FNC-SURVEY-010</v>
       </c>
-      <c r="C5" s="172" t="str">
+      <c r="C5" s="171" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D5" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E5" s="148" t="s">
         <v>20</v>
@@ -8262,24 +8277,24 @@
       <c r="F5" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="173" t="s">
-        <v>465</v>
+      <c r="G5" s="172" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="167" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="168" t="str">
+      <c r="A6" s="166" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SURVEY-040")</f>
         <v>FNC-SURVEY-040</v>
       </c>
-      <c r="C6" s="171" t="str">
+      <c r="C6" s="170" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D6" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E6" s="142" t="s">
         <v>20</v>
@@ -8289,19 +8304,19 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="169" t="s">
-        <v>467</v>
-      </c>
-      <c r="B7" s="170" t="str">
+      <c r="A7" s="168" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SURVEY-050")</f>
         <v>FNC-SURVEY-050</v>
       </c>
-      <c r="C7" s="172" t="str">
+      <c r="C7" s="171" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D7" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E7" s="148" t="s">
         <v>20</v>
@@ -8311,19 +8326,19 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="167" t="s">
-        <v>468</v>
-      </c>
-      <c r="B8" s="168" t="str">
+      <c r="A8" s="166" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SURVEY-100")</f>
         <v>FNC-SURVEY-100</v>
       </c>
-      <c r="C8" s="171" t="str">
+      <c r="C8" s="170" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D8" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E8" s="142" t="s">
         <v>83</v>
@@ -8331,24 +8346,24 @@
       <c r="F8" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="174" t="s">
-        <v>469</v>
+      <c r="G8" s="173" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="169" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" s="170" t="str">
+      <c r="A9" s="168" t="s">
+        <v>472</v>
+      </c>
+      <c r="B9" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-SURVEY-110")</f>
         <v>FNC-SURVEY-110</v>
       </c>
-      <c r="C9" s="172" t="str">
+      <c r="C9" s="171" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D9" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E9" s="148" t="s">
         <v>83</v>
@@ -8356,24 +8371,24 @@
       <c r="F9" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="173" t="s">
-        <v>469</v>
+      <c r="G9" s="172" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="167" t="s">
-        <v>471</v>
-      </c>
-      <c r="B10" s="168" t="str">
+      <c r="A10" s="166" t="s">
+        <v>473</v>
+      </c>
+      <c r="B10" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-MENU-010")</f>
         <v>FNC-MENU-010</v>
       </c>
-      <c r="C10" s="171" t="str">
+      <c r="C10" s="170" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"송지훈")</f>
         <v>송지훈</v>
       </c>
       <c r="D10" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E10" s="142" t="s">
         <v>20</v>
@@ -8383,19 +8398,19 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="169" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="170" t="str">
+      <c r="A11" s="168" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-030")</f>
         <v>FNC-PROFILE-030</v>
       </c>
-      <c r="C11" s="172" t="str">
+      <c r="C11" s="171" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D11" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E11" s="148" t="s">
         <v>20</v>
@@ -8405,19 +8420,19 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="167" t="s">
-        <v>473</v>
-      </c>
-      <c r="B12" s="168" t="str">
+      <c r="A12" s="166" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-060")</f>
         <v>FNC-PROFILE-060</v>
       </c>
-      <c r="C12" s="171" t="str">
+      <c r="C12" s="170" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D12" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E12" s="142" t="s">
         <v>20</v>
@@ -8427,19 +8442,19 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="169" t="s">
-        <v>474</v>
-      </c>
-      <c r="B13" s="170" t="str">
+      <c r="A13" s="168" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-070")</f>
         <v>FNC-PROFILE-070</v>
       </c>
-      <c r="C13" s="170" t="str">
+      <c r="C13" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D13" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E13" s="148" t="s">
         <v>20</v>
@@ -8449,19 +8464,19 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="167" t="s">
-        <v>475</v>
-      </c>
-      <c r="B14" s="168" t="str">
+      <c r="A14" s="166" t="s">
+        <v>477</v>
+      </c>
+      <c r="B14" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-080")</f>
         <v>FNC-PROFILE-080</v>
       </c>
-      <c r="C14" s="168" t="str">
+      <c r="C14" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D14" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E14" s="142" t="s">
         <v>20</v>
@@ -8471,19 +8486,19 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="169" t="s">
-        <v>476</v>
-      </c>
-      <c r="B15" s="170" t="str">
+      <c r="A15" s="168" t="s">
+        <v>478</v>
+      </c>
+      <c r="B15" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-090")</f>
         <v>FNC-PROFILE-090</v>
       </c>
-      <c r="C15" s="170" t="str">
+      <c r="C15" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E15" s="148" t="s">
         <v>20</v>
@@ -8493,19 +8508,19 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="167" t="s">
-        <v>477</v>
-      </c>
-      <c r="B16" s="168" t="str">
+      <c r="A16" s="166" t="s">
+        <v>479</v>
+      </c>
+      <c r="B16" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-110")</f>
         <v>FNC-PROFILE-110</v>
       </c>
-      <c r="C16" s="168" t="str">
+      <c r="C16" s="167" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D16" s="142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E16" s="142" t="s">
         <v>20</v>
@@ -8515,19 +8530,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="169" t="s">
-        <v>478</v>
-      </c>
-      <c r="B17" s="170" t="str">
+      <c r="A17" s="168" t="s">
+        <v>480</v>
+      </c>
+      <c r="B17" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-120")</f>
         <v>FNC-PROFILE-120</v>
       </c>
-      <c r="C17" s="170" t="str">
+      <c r="C17" s="169" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
       <c r="D17" s="148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E17" s="148" t="s">
         <v>20</v>
@@ -8537,30 +8552,30 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="175" t="s">
-        <v>479</v>
-      </c>
-      <c r="B18" s="176" t="str">
+      <c r="A18" s="174" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18" s="175" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FNC-PROFILE-130")</f>
         <v>FNC-PROFILE-130</v>
       </c>
-      <c r="C18" s="176" t="str">
+      <c r="C18" s="175" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"윤이서")</f>
         <v>윤이서</v>
       </c>
-      <c r="D18" s="162" t="s">
-        <v>462</v>
-      </c>
-      <c r="E18" s="162" t="s">
+      <c r="D18" s="161" t="s">
+        <v>464</v>
+      </c>
+      <c r="E18" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="162" t="s">
+      <c r="F18" s="161" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="177"/>
-      <c r="C19" s="177"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
